--- a/resources/excel/shift_template.xlsx
+++ b/resources/excel/shift_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF04CF3-E3C6-4F59-89CA-D5D1AD39EA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20115E7-2DEA-442B-B26D-D0967BC9629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="255" windowWidth="25455" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4853" yWindow="645" windowWidth="19214" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務表" sheetId="17" r:id="rId1"/>
@@ -31,14 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
-  <si>
-    <t>メガプライス勤務表</t>
-    <rPh sb="6" eb="9">
-      <t>キンムヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>令</t>
     <rPh sb="0" eb="1">
@@ -640,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,45 +763,24 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -830,25 +802,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,7 +1149,7 @@
   <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1328125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1176,55 +1160,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+    </row>
+    <row r="2" spans="1:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-    </row>
-    <row r="2" spans="1:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3">
-        <v>5</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3">
-        <v>5</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,10 +1280,10 @@
       <c r="AI4" s="42"/>
     </row>
     <row r="5" spans="1:35" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1334,15 +1312,15 @@
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
       <c r="AF5" s="29"/>
-      <c r="AG5" s="63"/>
+      <c r="AG5" s="43"/>
       <c r="AH5" s="9"/>
-      <c r="AI5" s="64"/>
+      <c r="AI5" s="44"/>
     </row>
     <row r="6" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -1376,10 +1354,10 @@
       <c r="AI6" s="28"/>
     </row>
     <row r="7" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -1413,10 +1391,10 @@
       <c r="AI7" s="28"/>
     </row>
     <row r="8" spans="1:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="30"/>
@@ -1447,77 +1425,77 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="65"/>
+      <c r="AI8" s="45"/>
     </row>
     <row r="9" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
     </row>
     <row r="10" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
     </row>
     <row r="11" spans="1:35" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="46" t="s">
         <v>7</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>8</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -1551,55 +1529,49 @@
       <c r="AI11" s="19"/>
     </row>
     <row r="14" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+    </row>
+    <row r="15" spans="1:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-    </row>
-    <row r="15" spans="1:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1677,10 +1649,10 @@
       <c r="AI17" s="14"/>
     </row>
     <row r="18" spans="1:35" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="34"/>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
@@ -1714,10 +1686,10 @@
       <c r="AI18" s="36"/>
     </row>
     <row r="19" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -1751,10 +1723,10 @@
       <c r="AI19" s="28"/>
     </row>
     <row r="20" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="20"/>
       <c r="F20" s="18"/>
       <c r="G20" s="21"/>
@@ -1788,10 +1760,10 @@
       <c r="AI20" s="28"/>
     </row>
     <row r="21" spans="1:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="32"/>
       <c r="F21" s="7"/>
       <c r="G21" s="31"/>
@@ -1825,60 +1797,60 @@
       <c r="AI21" s="33"/>
     </row>
     <row r="22" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="55"/>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
     </row>
     <row r="23" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
     </row>
     <row r="24" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -1919,6 +1891,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A14:M15"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="Y9:AE9"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="Q10:W10"/>
+    <mergeCell ref="Y10:AE10"/>
     <mergeCell ref="Y22:AE22"/>
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="Q23:W23"/>
@@ -1930,19 +1915,6 @@
     <mergeCell ref="I22:O22"/>
     <mergeCell ref="Q22:W22"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="Y9:AE9"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="Q10:W10"/>
-    <mergeCell ref="Y10:AE10"/>
-    <mergeCell ref="A14:M15"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">

--- a/resources/excel/shift_template.xlsx
+++ b/resources/excel/shift_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20115E7-2DEA-442B-B26D-D0967BC9629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB61065-304B-4F53-B7A9-C76C47A45A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4853" yWindow="645" windowWidth="19214" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="795" windowWidth="19216" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務表" sheetId="17" r:id="rId1"/>
@@ -93,10 +93,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="d"/>
+  <numFmts count="1">
     <numFmt numFmtId="177" formatCode="aaa"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -633,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,12 +662,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,9 +669,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -745,15 +734,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,12 +755,45 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -802,37 +815,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,7 +1138,7 @@
   <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="E3" sqref="E3:AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1328125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1160,34 +1149,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1206,198 +1195,198 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="39"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="63"/>
     </row>
     <row r="4" spans="1:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="42"/>
-    </row>
-    <row r="5" spans="1:35" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="36"/>
+    </row>
+    <row r="5" spans="1:35" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="29"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="29"/>
+      <c r="R5" s="26"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
-      <c r="Y5" s="29"/>
+      <c r="Y5" s="26"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="43"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="37"/>
       <c r="AH5" s="9"/>
-      <c r="AI5" s="44"/>
+      <c r="AI5" s="38"/>
     </row>
     <row r="6" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="28"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="25"/>
     </row>
     <row r="7" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="28"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="25"/>
     </row>
     <row r="8" spans="1:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1425,138 +1414,138 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="45"/>
+      <c r="AI8" s="39"/>
     </row>
     <row r="9" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
     </row>
     <row r="10" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-    </row>
-    <row r="11" spans="1:35" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+    </row>
+    <row r="11" spans="1:35" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="19"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="16"/>
     </row>
     <row r="14" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" spans="1:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
       <c r="N15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1575,282 +1564,282 @@
       </c>
     </row>
     <row r="16" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="15"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="63"/>
     </row>
     <row r="17" spans="1:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="14"/>
-    </row>
-    <row r="18" spans="1:35" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="36"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="12"/>
+    </row>
+    <row r="18" spans="1:35" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="33"/>
     </row>
     <row r="19" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="28"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="25"/>
     </row>
     <row r="20" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="28"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="25"/>
     </row>
     <row r="21" spans="1:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="32"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="31"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="31"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="31"/>
+      <c r="N21" s="28"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="31"/>
+      <c r="S21" s="28"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="31"/>
+      <c r="U21" s="28"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-      <c r="Z21" s="31"/>
+      <c r="Z21" s="28"/>
       <c r="AA21" s="7"/>
-      <c r="AB21" s="31"/>
+      <c r="AB21" s="28"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="31"/>
+      <c r="AG21" s="28"/>
       <c r="AH21" s="7"/>
-      <c r="AI21" s="33"/>
+      <c r="AI21" s="30"/>
     </row>
     <row r="22" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
     </row>
     <row r="23" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
     </row>
     <row r="24" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -1891,19 +1880,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A14:M15"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="Y9:AE9"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="Q10:W10"/>
-    <mergeCell ref="Y10:AE10"/>
     <mergeCell ref="Y22:AE22"/>
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="Q23:W23"/>
@@ -1915,6 +1891,19 @@
     <mergeCell ref="I22:O22"/>
     <mergeCell ref="Q22:W22"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="Y9:AE9"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="Q10:W10"/>
+    <mergeCell ref="Y10:AE10"/>
+    <mergeCell ref="A14:M15"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
